--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H2">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.30312161522582</v>
+        <v>0.05206533333333333</v>
       </c>
       <c r="N2">
-        <v>1.30312161522582</v>
+        <v>0.156196</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03170654174267026</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03170654174267026</v>
       </c>
       <c r="Q2">
-        <v>47.20011658300074</v>
+        <v>2.124149858764</v>
       </c>
       <c r="R2">
-        <v>47.20011658300074</v>
+        <v>19.117348728876</v>
       </c>
       <c r="S2">
-        <v>0.2624097339090501</v>
+        <v>0.008526623021670699</v>
       </c>
       <c r="T2">
-        <v>0.2624097339090501</v>
+        <v>0.008526623021670702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.1615960274159</v>
+        <v>40.797777</v>
       </c>
       <c r="H3">
-        <v>46.1615960274159</v>
+        <v>122.393331</v>
       </c>
       <c r="I3">
-        <v>0.3344280019734537</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J3">
-        <v>0.3344280019734537</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.30312161522582</v>
+        <v>0.150436</v>
       </c>
       <c r="N3">
-        <v>1.30312161522582</v>
+        <v>0.451308</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.09161192310175054</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.09161192310175056</v>
       </c>
       <c r="Q3">
-        <v>60.154173576648</v>
+        <v>6.137454380772</v>
       </c>
       <c r="R3">
-        <v>60.154173576648</v>
+        <v>55.237089426948</v>
       </c>
       <c r="S3">
-        <v>0.3344280019734537</v>
+        <v>0.02463656676652513</v>
       </c>
       <c r="T3">
-        <v>0.3344280019734537</v>
+        <v>0.02463656676652514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,424 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.6490887720804</v>
+        <v>40.797777</v>
       </c>
       <c r="H4">
-        <v>55.6490887720804</v>
+        <v>122.393331</v>
       </c>
       <c r="I4">
-        <v>0.4031622641174961</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J4">
-        <v>0.4031622641174961</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30312161522582</v>
+        <v>1.439599333333333</v>
       </c>
       <c r="N4">
-        <v>1.30312161522582</v>
+        <v>4.318798</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8766815351555791</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8766815351555792</v>
       </c>
       <c r="Q4">
-        <v>72.51753044651845</v>
+        <v>58.73245257068201</v>
       </c>
       <c r="R4">
-        <v>72.51753044651845</v>
+        <v>528.5920731361381</v>
       </c>
       <c r="S4">
-        <v>0.4031622641174961</v>
+        <v>0.2357599583391724</v>
       </c>
       <c r="T4">
-        <v>0.4031622641174961</v>
+        <v>0.2357599583391725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>46.219831</v>
+      </c>
+      <c r="H5">
+        <v>138.659493</v>
+      </c>
+      <c r="I5">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="J5">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05206533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.156196</v>
+      </c>
+      <c r="O5">
+        <v>0.03170654174267026</v>
+      </c>
+      <c r="P5">
+        <v>0.03170654174267026</v>
+      </c>
+      <c r="Q5">
+        <v>2.406450907625333</v>
+      </c>
+      <c r="R5">
+        <v>21.658058168628</v>
+      </c>
+      <c r="S5">
+        <v>0.009659817373439955</v>
+      </c>
+      <c r="T5">
+        <v>0.009659817373439957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>46.219831</v>
+      </c>
+      <c r="H6">
+        <v>138.659493</v>
+      </c>
+      <c r="I6">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="J6">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.150436</v>
+      </c>
+      <c r="N6">
+        <v>0.451308</v>
+      </c>
+      <c r="O6">
+        <v>0.09161192310175054</v>
+      </c>
+      <c r="P6">
+        <v>0.09161192310175056</v>
+      </c>
+      <c r="Q6">
+        <v>6.953126496315999</v>
+      </c>
+      <c r="R6">
+        <v>62.578138466844</v>
+      </c>
+      <c r="S6">
+        <v>0.02791078426574585</v>
+      </c>
+      <c r="T6">
+        <v>0.02791078426574586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>46.219831</v>
+      </c>
+      <c r="H7">
+        <v>138.659493</v>
+      </c>
+      <c r="I7">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="J7">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.439599333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.318798</v>
+      </c>
+      <c r="O7">
+        <v>0.8766815351555791</v>
+      </c>
+      <c r="P7">
+        <v>0.8766815351555792</v>
+      </c>
+      <c r="Q7">
+        <v>66.53803789437934</v>
+      </c>
+      <c r="R7">
+        <v>598.842341049414</v>
+      </c>
+      <c r="S7">
+        <v>0.2670926269096375</v>
+      </c>
+      <c r="T7">
+        <v>0.2670926269096375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>64.69033266666666</v>
+      </c>
+      <c r="H8">
+        <v>194.070998</v>
+      </c>
+      <c r="I8">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="J8">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05206533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.156196</v>
+      </c>
+      <c r="O8">
+        <v>0.03170654174267026</v>
+      </c>
+      <c r="P8">
+        <v>0.03170654174267026</v>
+      </c>
+      <c r="Q8">
+        <v>3.368123733734222</v>
+      </c>
+      <c r="R8">
+        <v>30.313113603608</v>
+      </c>
+      <c r="S8">
+        <v>0.0135201013475596</v>
+      </c>
+      <c r="T8">
+        <v>0.0135201013475596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>64.69033266666666</v>
+      </c>
+      <c r="H9">
+        <v>194.070998</v>
+      </c>
+      <c r="I9">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="J9">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.150436</v>
+      </c>
+      <c r="N9">
+        <v>0.451308</v>
+      </c>
+      <c r="O9">
+        <v>0.09161192310175054</v>
+      </c>
+      <c r="P9">
+        <v>0.09161192310175056</v>
+      </c>
+      <c r="Q9">
+        <v>9.731754885042665</v>
+      </c>
+      <c r="R9">
+        <v>87.585793965384</v>
+      </c>
+      <c r="S9">
+        <v>0.03906457206947955</v>
+      </c>
+      <c r="T9">
+        <v>0.03906457206947956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>64.69033266666666</v>
+      </c>
+      <c r="H10">
+        <v>194.070998</v>
+      </c>
+      <c r="I10">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="J10">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.439599333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.318798</v>
+      </c>
+      <c r="O10">
+        <v>0.8766815351555791</v>
+      </c>
+      <c r="P10">
+        <v>0.8766815351555792</v>
+      </c>
+      <c r="Q10">
+        <v>93.1281597800449</v>
+      </c>
+      <c r="R10">
+        <v>838.153438020404</v>
+      </c>
+      <c r="S10">
+        <v>0.3738289499067691</v>
+      </c>
+      <c r="T10">
+        <v>0.3738289499067692</v>
       </c>
     </row>
   </sheetData>
